--- a/database.xlsx
+++ b/database.xlsx
@@ -1,50 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\ратова\telega_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>ключевая фраза</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>привет</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANhYhKrDYXggOZJnoRRnorQLIi9TG4AAh4JAAIYQu4I-VjZ7h0hnCEjBA</t>
+  </si>
+  <si>
+    <t>Приятно познакомиться с живым человеком, я - бот!</t>
+  </si>
+  <si>
+    <t>пока</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANeYhKq-3BVuhgAAXmf_WK95nib4jAFAAKOAAMWQmsKvqSGfW1-LVwjBA</t>
+  </si>
+  <si>
+    <t>жаль расстоваться, человек)</t>
+  </si>
+  <si>
+    <t>как дела</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANZYhKp4H4SJJwrTOqu6UEiq9EtqZ0AAhMBAAJSiZEjgGq_p-zb_zwjBA</t>
+  </si>
+  <si>
+    <t>удачи</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANkYhKrPLhmoae0e9K8m5jF2H45Wn0AAs8AA_cCyA-5-Dj7pxiu_SME</t>
+  </si>
+  <si>
+    <t>знаешь</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAANnYhKrQE9zIKlx04LT4nLcNTCrMIYAAs4AA_cCyA9cmEfgzKtuiiME</t>
+  </si>
+  <si>
+    <t>жиза</t>
+  </si>
+  <si>
+    <t>жизнь - интересная штука</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя </t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>класс</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,82 +136,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,147 +418,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ключевая фраза</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>file_id</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Ответ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>привет</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAANhYhKrDYXggOZJnoRRnorQLIi9TG4AAh4JAAIYQu4I-VjZ7h0hnCEjBA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Приятно познакомиться с живым человеком, я - бот!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>пока</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAANeYhKq-3BVuhgAAXmf_WK95nib4jAFAAKOAAMWQmsKvqSGfW1-LVwjBA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>жаль расстоваться, человек)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>как дела</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAANZYhKp4H4SJJwrTOqu6UEiq9EtqZ0AAhMBAAJSiZEjgGq_p-zb_zwjBA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>удачи</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAANkYhKrPLhmoae0e9K8m5jF2H45Wn0AAs8AA_cCyA-5-Dj7pxiu_SME</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>знаешь</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAANnYhKrQE9zIKlx04LT4nLcNTCrMIYAAs4AA_cCyA9cmEfgzKtuiiME</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>жиза</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>жизнь - интересная штука</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>жиза</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>жизнь - интересная штука</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>жиза</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>жизнь - интересная штука</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -70,9 +70,6 @@
     <t>жиза</t>
   </si>
   <si>
-    <t>жизнь - интересная штука</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -83,6 +80,18 @@
   </si>
   <si>
     <t>класс</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>жизнь - интересная штука)</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,31 +501,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -527,30 +512,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1990838212</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>